--- a/biology/Botanique/Geranium_rotundifolium/Geranium_rotundifolium.xlsx
+++ b/biology/Botanique/Geranium_rotundifolium/Geranium_rotundifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium rotundifolium
-Le Géranium à feuilles rondes, ou mauvin, mauvette (Geranium rotundifolium L. ), est une espèce de plantes herbacées du genre Geranium, de la famille des Géraniacées[1].
+Le Géranium à feuilles rondes, ou mauvin, mauvette (Geranium rotundifolium L. ), est une espèce de plantes herbacées du genre Geranium, de la famille des Géraniacées.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle, poilue, aux tiges de 10 à 40 cm de hauteur, dressées ou diffuses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle, poilue, aux tiges de 10 à 40 cm de hauteur, dressées ou diffuses.
 Les feuilles velues, sont toutes longuement pétiolées, orbiculaires-arrondies, palmatifides, à 5-7 lobes en coin, presque aussi larges que longs. Elles sont très souvent marquées d’un point rouge aux sinus. Elles sont disposées en rosette à la base puis opposées.
-Les fleurs sont petites, de couleur rose[2]. Les 5 sépales verts sont linéaires, de 5-6 mm de long. Les 5 pétales sont d'un rose intense et base blanche, entiers ou faiblement émarginés. L'inflorescence est une cyme à deux fleurs, portée par un pédoncule est plus court que les feuilles. Les carpelles sont pubescents.
+Les fleurs sont petites, de couleur rose. Les 5 sépales verts sont linéaires, de 5-6 mm de long. Les 5 pétales sont d'un rose intense et base blanche, entiers ou faiblement émarginés. L'inflorescence est une cyme à deux fleurs, portée par un pédoncule est plus court que les feuilles. Les carpelles sont pubescents.
 La floraison a lieu d'avril à septembre.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Couleur dominante des fleurs : rose
@@ -584,10 +600,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans les champs, le long des chemins, des haies et dans les jardins.
-Plante d'Asie occidentale, Afrique septentrionale et Europe, elle est présente dans toute la France métropolitaine. Elle est naturalisée ailleurs[3].
+Plante d'Asie occidentale, Afrique septentrionale et Europe, elle est présente dans toute la France métropolitaine. Elle est naturalisée ailleurs.
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D'après The Plant List[4], les synonymes sont :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après The Plant List, les synonymes sont :
 Geranium core Kostel.
 Geranium malvaceum Wahlenb.
 Geranium pinnatifidum Picard
